--- a/Tv guide model.xlsx
+++ b/Tv guide model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewisbailey/Databases/Tv-Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583B981C-8117-9448-971C-013BECEFA735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EEAC34-8330-1E43-96C7-0BFCBBD4B605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{851BD7BA-570D-3442-A5C6-47F33B38C59D}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>AiredDate</t>
   </si>
   <si>
-    <t>Programs</t>
-  </si>
-  <si>
     <t>Big Trouble</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Genres</t>
+  </si>
+  <si>
+    <t>Program Schedule</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
@@ -655,22 +655,22 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
       </c>
       <c r="S2" t="s">
         <v>16</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -1064,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
@@ -1084,19 +1084,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1104,19 +1104,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -1124,13 +1124,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -1138,13 +1138,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19">
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
